--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/148.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/148.xlsx
@@ -479,13 +479,13 @@
         <v>-8.415038660785939</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.284723489317335</v>
+        <v>-12.58207232921741</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.285539113222053</v>
+        <v>-0.8079287222020077</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.94305366205681</v>
+        <v>-8.01859306609969</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-8.567510433972059</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.960679085035652</v>
+        <v>-13.10366967443178</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.305400136632952</v>
+        <v>-0.863073501771358</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.909066043879688</v>
+        <v>-8.105643787694326</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-8.664701783300812</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.66944399167533</v>
+        <v>-13.57245266998262</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.219344430054286</v>
+        <v>-0.7105743582709327</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.293636164198672</v>
+        <v>-7.718399654241753</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-8.681199515865607</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.3633622268925</v>
+        <v>-14.10502136497836</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.138159060132743</v>
+        <v>-0.6746098023647112</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.826555168017252</v>
+        <v>-7.574122476925932</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-8.622562455259896</v>
       </c>
       <c r="E6" t="n">
-        <v>-12.16431003784077</v>
+        <v>-14.78250876012915</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.203437282101589</v>
+        <v>-0.735410456761687</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.56697407957435</v>
+        <v>-7.519815604738453</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-8.493339633162668</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.83184728283186</v>
+        <v>-15.40673666731981</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.182437228343461</v>
+        <v>-0.6163228701133467</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.883909363412975</v>
+        <v>-7.150494833876201</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-8.303536985085854</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.66119229864384</v>
+        <v>-16.07644723458262</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.225000304881912</v>
+        <v>-0.590740510360614</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.388981039087205</v>
+        <v>-7.035897907102573</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-8.058330119871565</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.29463718703507</v>
+        <v>-16.64686577709379</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.238878145894142</v>
+        <v>-0.5703296102303631</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.119934215689734</v>
+        <v>-6.814258312294992</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-7.771067329446304</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.16976598588457</v>
+        <v>-17.47522887019264</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.22157012153738</v>
+        <v>-0.4296528161960165</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.885974763908089</v>
+        <v>-6.655265386585071</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-7.450866655443139</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.77686916095825</v>
+        <v>-18.16497066080329</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.239768422487379</v>
+        <v>-0.3718764837554793</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.702394493461406</v>
+        <v>-6.653759771758272</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-7.118693070508384</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.50469646053548</v>
+        <v>-18.95489475275884</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.176467138247633</v>
+        <v>-0.3094916607146546</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.332458384365594</v>
+        <v>-6.450292293295008</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-6.79296773703576</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.08490804557226</v>
+        <v>-19.61104169427762</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.138342352372527</v>
+        <v>-0.2831499473971018</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.04707236702165</v>
+        <v>-6.162025969325883</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-6.498702589080151</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.01548274695647</v>
+        <v>-20.62075936634006</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.986039593414728</v>
+        <v>-0.1169693474270728</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.679545241648715</v>
+        <v>-5.76500188565054</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-6.258796788065699</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.81492494307794</v>
+        <v>-21.37102687298801</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.847653952377683</v>
+        <v>0.08877619173065239</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.503584691455917</v>
+        <v>-5.432810885647425</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-6.087171437818495</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.60009652910194</v>
+        <v>-22.356379769462</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.547198694462912</v>
+        <v>0.3720936252256045</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.150354360786148</v>
+        <v>-4.958398199874639</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-5.996796264859644</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.4056528306505</v>
+        <v>-23.31257610750746</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.423227678854608</v>
+        <v>0.4937473032309231</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.9341218870522</v>
+        <v>-4.631404844099689</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-5.987053580045599</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.04416444024148</v>
+        <v>-24.02664339679805</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.224080660329113</v>
+        <v>0.6061578154299831</v>
       </c>
       <c r="G18" t="n">
-        <v>-3.916866231906805</v>
+        <v>-4.353337424044269</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-6.055459856410133</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.71140056226721</v>
+        <v>-24.816947165536</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9925301922703453</v>
+        <v>0.8309919321309449</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.623048771532789</v>
+        <v>-3.825089188986305</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-6.187824579520464</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.21013874671992</v>
+        <v>-25.37855458823468</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.5757367313039959</v>
+        <v>1.099554340323272</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.327830434754707</v>
+        <v>-3.327450757972298</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-6.365492346595371</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.85996210596615</v>
+        <v>-26.1447816120467</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.3687736079819903</v>
+        <v>1.195664935484383</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.39414294864805</v>
+        <v>-3.199748436054101</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-6.567393432890595</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.48758091959282</v>
+        <v>-26.85026035067311</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.02841301100563765</v>
+        <v>1.430357556225164</v>
       </c>
       <c r="G22" t="n">
-        <v>-3.476716102670816</v>
+        <v>-2.944658007485911</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-6.76658761808719</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.81606679789173</v>
+        <v>-27.22011790595187</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1949809523827342</v>
+        <v>1.632555081312782</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.326534296773377</v>
+        <v>-2.706823234063115</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-6.942889545434031</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.25371629728494</v>
+        <v>-27.69154554667674</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2637810038160047</v>
+        <v>1.662798300877169</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.54508410811031</v>
+        <v>-2.677915429388584</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-7.075386569695617</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.58496465148345</v>
+        <v>-28.10718688499302</v>
       </c>
       <c r="F25" t="n">
-        <v>0.6852746015025338</v>
+        <v>1.924618173106007</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.665873694128075</v>
+        <v>-2.529579638191827</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-7.153304517691309</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.63111501900054</v>
+        <v>-28.28339618893981</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8145741843674205</v>
+        <v>1.958160652986509</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.910411726605834</v>
+        <v>-2.505738554717044</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-7.169866274287773</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.69634087175802</v>
+        <v>-28.21475324514064</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8904571716380647</v>
+        <v>2.045591051363556</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.943967298789178</v>
+        <v>-2.433181012368198</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-7.123899946237433</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.63618174020029</v>
+        <v>-28.12113018751946</v>
       </c>
       <c r="F28" t="n">
-        <v>0.992341472352377</v>
+        <v>2.084658483043266</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.899414192218784</v>
+        <v>-2.238210438449214</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-7.018523715838682</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.5695419187359</v>
+        <v>-28.12144440278766</v>
       </c>
       <c r="F29" t="n">
-        <v>1.121758885942839</v>
+        <v>2.099138569986216</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.130166029804206</v>
+        <v>-2.325208790832483</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-6.8549156130671</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.50832231064799</v>
+        <v>-27.98671151424346</v>
       </c>
       <c r="F30" t="n">
-        <v>1.12153631679453</v>
+        <v>2.025690751044132</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.356453392120599</v>
+        <v>-2.594596014103839</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-6.640051002678724</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.14829707480336</v>
+        <v>-27.62946184660128</v>
       </c>
       <c r="F31" t="n">
-        <v>1.167712868917298</v>
+        <v>2.07216842613226</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.512421995874083</v>
+        <v>-2.722795843530021</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-6.378523878129199</v>
       </c>
       <c r="E32" t="n">
-        <v>-23.84202883442687</v>
+        <v>-27.25608246185809</v>
       </c>
       <c r="F32" t="n">
-        <v>1.146202215348342</v>
+        <v>2.127601236364128</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.763584733589755</v>
+        <v>-3.006911907498318</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-6.082274537028162</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.61465481097461</v>
+        <v>-26.98419460874397</v>
       </c>
       <c r="F33" t="n">
-        <v>1.107684660387984</v>
+        <v>2.109429120019812</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.901263390273346</v>
+        <v>-3.092771229534358</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-5.762212029547931</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.03122251943877</v>
+        <v>-26.33531389530234</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9214990216757972</v>
+        <v>1.984554735515429</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.969906334072516</v>
+        <v>-3.292756155441723</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-5.431732584577256</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.62864729935854</v>
+        <v>-25.8540146582348</v>
       </c>
       <c r="F35" t="n">
-        <v>0.8341471771158009</v>
+        <v>1.915951068624784</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.976897623789998</v>
+        <v>-3.396303178616935</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-5.105038604909002</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.13726698910287</v>
+        <v>-25.24977869748346</v>
       </c>
       <c r="F36" t="n">
-        <v>0.7203750654212013</v>
+        <v>1.876805083128023</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.803922118645113</v>
+        <v>-3.375342401767331</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-4.792640041372587</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.46996540556294</v>
+        <v>-24.58830318870809</v>
       </c>
       <c r="F37" t="n">
-        <v>0.6798282035203758</v>
+        <v>1.903434827108094</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.798776843628315</v>
+        <v>-3.449052066766249</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-4.508155374082858</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.02520678572666</v>
+        <v>-24.07775574709214</v>
       </c>
       <c r="F38" t="n">
-        <v>0.5703372748550206</v>
+        <v>1.899821351523778</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.546880936953505</v>
+        <v>-3.492610158320672</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-4.256311349831904</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.5508333768624</v>
+        <v>-23.43648166160156</v>
       </c>
       <c r="F39" t="n">
-        <v>0.4428182451766087</v>
+        <v>1.928938633043777</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.324089219495852</v>
+        <v>-3.520928809367325</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-4.0440356963395</v>
       </c>
       <c r="E40" t="n">
-        <v>-20.00764682426203</v>
+        <v>-22.87954819101737</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3427014053459295</v>
+        <v>1.945775334498236</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.567619144654799</v>
+        <v>-3.749612063103755</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-3.871968093740134</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.30620051491087</v>
+        <v>-22.19779270514017</v>
       </c>
       <c r="F41" t="n">
-        <v>0.3199600753098513</v>
+        <v>2.031608471928593</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.377833122661138</v>
+        <v>-3.733992945813575</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-3.738648579234197</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.62647433597414</v>
+        <v>-21.51584083472035</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1929909223507919</v>
+        <v>2.048864127073987</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.456295293591602</v>
+        <v>-4.117571234470466</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-3.640313661617831</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.03094475661254</v>
+        <v>-20.94969038293559</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1033086478849683</v>
+        <v>2.058866646445066</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.501948153600702</v>
+        <v>-4.270345316330567</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-3.568575768700704</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.39662268393091</v>
+        <v>-20.1222568433385</v>
       </c>
       <c r="F44" t="n">
-        <v>0.127267562085327</v>
+        <v>2.091728326577798</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.25625799847287</v>
+        <v>-4.286409571917365</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-3.51947711709813</v>
       </c>
       <c r="E45" t="n">
-        <v>-16.90309523600921</v>
+        <v>-19.58384898127536</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1595008116816566</v>
+        <v>2.121762069296718</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.267137702134344</v>
+        <v>-4.43359324046405</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-3.485444286075759</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.35674034612114</v>
+        <v>-19.00832444065592</v>
       </c>
       <c r="F46" t="n">
-        <v>0.09486411255205501</v>
+        <v>2.200656286220959</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.192577037450715</v>
+        <v>-4.591708981883575</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-3.464140569222359</v>
       </c>
       <c r="E47" t="n">
-        <v>-15.9048071443276</v>
+        <v>-18.61829164669806</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.009180418131142053</v>
+        <v>2.187825829436068</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.126028862106221</v>
+        <v>-4.622397339744581</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-3.454886616694502</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.36887372750154</v>
+        <v>-17.92011841305733</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.01263678608135774</v>
+        <v>2.262504324845273</v>
       </c>
       <c r="G48" t="n">
-        <v>-4.207908124078376</v>
+        <v>-4.794050522302451</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-3.456271077017818</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.8301516501702</v>
+        <v>-17.39747368361563</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.1124132260381521</v>
+        <v>2.205421884455347</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.117859265132983</v>
+        <v>-4.803490072651337</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-3.469802491114778</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.2200634300486</v>
+        <v>-16.84643174931022</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.2623070012730739</v>
+        <v>2.091754511183482</v>
       </c>
       <c r="G50" t="n">
-        <v>-3.970099535261263</v>
+        <v>-4.765142717627921</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-3.494968293700945</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.53822939035435</v>
+        <v>-16.19354479119902</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.2640351852481817</v>
+        <v>2.168972913343982</v>
       </c>
       <c r="G51" t="n">
-        <v>-3.889791349630116</v>
+        <v>-4.741733680146914</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-3.532706705734195</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.92349340272394</v>
+        <v>-15.58027514148689</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.2988214338986478</v>
+        <v>2.130114958509739</v>
       </c>
       <c r="G52" t="n">
-        <v>-3.856824931074649</v>
+        <v>-4.758858412263892</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-3.578810586097002</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.23490373476336</v>
+        <v>-14.9506401132226</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.1092579810532961</v>
+        <v>2.289657760939013</v>
       </c>
       <c r="G53" t="n">
-        <v>-3.890786364646087</v>
+        <v>-4.890789547999965</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-3.627844673640633</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.7524654673486</v>
+        <v>-14.35719221001284</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.2142713421467809</v>
+        <v>2.212596466412613</v>
       </c>
       <c r="G54" t="n">
-        <v>-3.968620105040148</v>
+        <v>-5.02439649849978</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-3.673720664659359</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.19015106029646</v>
+        <v>-13.73140631878402</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.3909781536015576</v>
+        <v>2.153995318893048</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.08324321641946</v>
+        <v>-5.174604489002903</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-3.709766601634545</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.8988604143709</v>
+        <v>-13.36094651757454</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.3500385226154802</v>
+        <v>2.185757245587075</v>
       </c>
       <c r="G56" t="n">
-        <v>-4.226630117142044</v>
+        <v>-5.346310040772141</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-3.733586181887816</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.31432836939636</v>
+        <v>-12.7063837446996</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.4747819840914462</v>
+        <v>2.079054977427008</v>
       </c>
       <c r="G57" t="n">
-        <v>-4.378461553197541</v>
+        <v>-5.524378451722457</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-3.740695455497851</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.844079035927239</v>
+        <v>-12.21271228144664</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.486931641128568</v>
+        <v>2.063972644553339</v>
       </c>
       <c r="G58" t="n">
-        <v>-4.683132532627348</v>
+        <v>-5.84160494957748</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-3.730295679501602</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.233611139023235</v>
+        <v>-11.59119448094422</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.498452867629287</v>
+        <v>1.995080947000176</v>
       </c>
       <c r="G59" t="n">
-        <v>-4.792990045772272</v>
+        <v>-5.923431842338267</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-3.699830844925867</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.907377136813107</v>
+        <v>-11.17228006691751</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.6057181048115486</v>
+        <v>1.8679808710127</v>
       </c>
       <c r="G60" t="n">
-        <v>-4.942687436464568</v>
+        <v>-6.089402965462829</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-3.649627153318055</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.496802519696576</v>
+        <v>-10.76467740254605</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.736994625405536</v>
+        <v>1.715926865808893</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.04017272342406</v>
+        <v>-6.206212491416709</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-3.580049082012029</v>
       </c>
       <c r="E62" t="n">
-        <v>-8.111705523910047</v>
+        <v>-10.30755964882718</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.881952602469127</v>
+        <v>1.478484861471349</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.304571779312718</v>
+        <v>-6.397294651391701</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-3.490438309764988</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.709221949949703</v>
+        <v>-10.01104517406777</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.9621036804661739</v>
+        <v>1.38526766523826</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.322835541776926</v>
+        <v>-6.471410177778712</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-3.382166234193468</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.49704809009669</v>
+        <v>-9.707879809464764</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.9792153202803099</v>
+        <v>1.280018642693624</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.400512174536886</v>
+        <v>-6.481072297275906</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-3.254056518890307</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.367669953414754</v>
+        <v>-9.626157655126709</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.121528652169872</v>
+        <v>1.07192958132723</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.545679628445945</v>
+        <v>-6.505423980561517</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-3.109231187160094</v>
       </c>
       <c r="E66" t="n">
-        <v>-7.20076927678843</v>
+        <v>-9.402069799687725</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.21769161654235</v>
+        <v>0.9591655769514431</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.668262859953026</v>
+        <v>-6.604846928341584</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-2.948388816576581</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.095376238912535</v>
+        <v>-9.232904154669782</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.346781722561769</v>
+        <v>0.7101237922961299</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.558287516082528</v>
+        <v>-6.464575995695331</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-2.776323897129252</v>
       </c>
       <c r="E68" t="n">
-        <v>-7.062933512470738</v>
+        <v>-9.148249324495183</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.497303928333094</v>
+        <v>0.4695920044879385</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.425191165393541</v>
+        <v>-6.382094487792457</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-2.595951824685842</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.891437437546967</v>
+        <v>-8.936324218396162</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.530780946699387</v>
+        <v>0.3309968866054264</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.387681717751995</v>
+        <v>-6.300411610362928</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-2.410092861703389</v>
       </c>
       <c r="E70" t="n">
-        <v>-6.966534886647109</v>
+        <v>-8.905387106781165</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.752237249267184</v>
+        <v>0.07495071992978966</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.369352493773579</v>
+        <v>-6.153725449324229</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-2.222011857332144</v>
       </c>
       <c r="E71" t="n">
-        <v>-6.987430201982503</v>
+        <v>-8.783196644359334</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.713274556010207</v>
+        <v>0.06294507822392685</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.342500180645199</v>
+        <v>-5.980893959510603</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-2.031244415747257</v>
       </c>
       <c r="E72" t="n">
-        <v>-7.099644329638937</v>
+        <v>-8.836429947713793</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.765656859679953</v>
+        <v>-0.05128526407013309</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.253616536652721</v>
+        <v>-5.855234036835716</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-1.840470347605102</v>
       </c>
       <c r="E73" t="n">
-        <v>-7.319673571196986</v>
+        <v>-8.996116765474325</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.787756666876787</v>
+        <v>-0.1343690179037267</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.176764718971788</v>
+        <v>-5.723604024065002</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-1.647973406100105</v>
       </c>
       <c r="E74" t="n">
-        <v>-7.876384472632862</v>
+        <v>-9.32383019790557</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.777636316780132</v>
+        <v>-0.2114041278244429</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.237892680939807</v>
+        <v>-5.622845661395079</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-1.45600688883767</v>
       </c>
       <c r="E75" t="n">
-        <v>-8.353926218784819</v>
+        <v>-9.577964888366315</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.838436971177108</v>
+        <v>-0.2784890875854473</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.197529111278766</v>
+        <v>-5.49959472244307</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-1.264165573827088</v>
       </c>
       <c r="E76" t="n">
-        <v>-8.736300015580271</v>
+        <v>-9.82708522683868</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.902811824249875</v>
+        <v>-0.3206986719471721</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.107218406276539</v>
+        <v>-5.306836747704336</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-1.07284343127999</v>
       </c>
       <c r="E77" t="n">
-        <v>-9.463446515409737</v>
+        <v>-10.39237158663589</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.931405413656205</v>
+        <v>-0.3581688426801921</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.036572340142586</v>
+        <v>-5.20037014099542</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.8834671418653406</v>
       </c>
       <c r="E78" t="n">
-        <v>-10.32159459747351</v>
+        <v>-11.06734525964107</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.099955720440586</v>
+        <v>-0.4969079758939633</v>
       </c>
       <c r="G78" t="n">
-        <v>-5.059104193333196</v>
+        <v>-5.092672857819381</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.6948743626176135</v>
       </c>
       <c r="E79" t="n">
-        <v>-11.2146991281247</v>
+        <v>-11.7886133154946</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.076533590656739</v>
+        <v>-0.516088199557092</v>
       </c>
       <c r="G79" t="n">
-        <v>-4.9442977897141</v>
+        <v>-4.81277251536612</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.509477894761012</v>
       </c>
       <c r="E80" t="n">
-        <v>-11.77184207555435</v>
+        <v>-12.20411063847962</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.066648902011235</v>
+        <v>-0.5702903333218379</v>
       </c>
       <c r="G80" t="n">
-        <v>-4.918492860813058</v>
+        <v>-4.65257509779476</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3262781725138831</v>
       </c>
       <c r="E81" t="n">
-        <v>-12.6645276525146</v>
+        <v>-12.85541342794697</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.073954406996918</v>
+        <v>-0.6098159956010089</v>
       </c>
       <c r="G81" t="n">
-        <v>-4.735541020902778</v>
+        <v>-4.394290147333188</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1481978261478452</v>
       </c>
       <c r="E82" t="n">
-        <v>-13.64364861283593</v>
+        <v>-13.79468141841808</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.059382673934077</v>
+        <v>-0.588685018814463</v>
       </c>
       <c r="G82" t="n">
-        <v>-4.542966338403829</v>
+        <v>-4.147277669618342</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.02367981032375237</v>
       </c>
       <c r="E83" t="n">
-        <v>-14.68303344313772</v>
+        <v>-14.59003881605294</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.118481328961629</v>
+        <v>-0.659226346525683</v>
       </c>
       <c r="G83" t="n">
-        <v>-4.51331227246732</v>
+        <v>-3.932354426168567</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.1874195926312895</v>
       </c>
       <c r="E84" t="n">
-        <v>-15.73886220580872</v>
+        <v>-15.52035167138031</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.135043092056412</v>
+        <v>-0.7088199896901414</v>
       </c>
       <c r="G84" t="n">
-        <v>-4.376681000011066</v>
+        <v>-3.783115266075732</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.3404360595348586</v>
       </c>
       <c r="E85" t="n">
-        <v>-16.82230263517292</v>
+        <v>-16.47127181138056</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.111097270158895</v>
+        <v>-0.738330040295392</v>
       </c>
       <c r="G85" t="n">
-        <v>-4.194540882876973</v>
+        <v>-3.561397117451101</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.4806533176446167</v>
       </c>
       <c r="E86" t="n">
-        <v>-18.1530173883088</v>
+        <v>-17.66276301609752</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.162288174270044</v>
+        <v>-0.8246606852337337</v>
       </c>
       <c r="G86" t="n">
-        <v>-4.099647871880142</v>
+        <v>-3.42281509187143</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.6031726611768616</v>
       </c>
       <c r="E87" t="n">
-        <v>-19.44637980143723</v>
+        <v>-18.90765772410589</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.960522695176204</v>
+        <v>-0.7412627161319386</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.877366754233317</v>
+        <v>-3.164582510621225</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.7022156084412943</v>
       </c>
       <c r="E88" t="n">
-        <v>-20.97487997360307</v>
+        <v>-20.29476102558108</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.878826725443833</v>
+        <v>-0.6750811252670134</v>
       </c>
       <c r="G88" t="n">
-        <v>-3.71825599779782</v>
+        <v>-3.088909000196049</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.7703721845458154</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.53553484154818</v>
+        <v>-21.73893367514336</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.904723300464767</v>
+        <v>-0.7746742729840236</v>
       </c>
       <c r="G89" t="n">
-        <v>-3.671568845864225</v>
+        <v>-3.020266056396879</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.7989386231310565</v>
       </c>
       <c r="E90" t="n">
-        <v>-24.30365034032329</v>
+        <v>-23.33319648448318</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.670357987295029</v>
+        <v>-0.6454139670276621</v>
       </c>
       <c r="G90" t="n">
-        <v>-3.618047511847249</v>
+        <v>-2.979483533044902</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.7794326646666737</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.14732151879799</v>
+        <v>-24.91672360549279</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.609387132961111</v>
+        <v>-0.6523397952309351</v>
       </c>
       <c r="G91" t="n">
-        <v>-3.526257376623908</v>
+        <v>-3.013510428130548</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.7032624486838247</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.16391583320622</v>
+        <v>-26.7869721587362</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.510658077231654</v>
+        <v>-0.713572495621688</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.703239126438361</v>
+        <v>-3.167868678634498</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.5623330925403938</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.05994313074499</v>
+        <v>-28.54674786060113</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.596530491570536</v>
+        <v>-0.8818740486520766</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.649036992673615</v>
+        <v>-3.140859257872017</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.3540364414095766</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.14387115866821</v>
+        <v>-30.39057614670994</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.385940800361372</v>
+        <v>-0.8125372128022953</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.775613376547422</v>
+        <v>-3.268705595121473</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.07704320810670638</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.12764306985223</v>
+        <v>-32.23538635553187</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.439187196018672</v>
+        <v>-0.9531878222309584</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.656277036145089</v>
+        <v>-3.215236630315863</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.267704666270083</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.32688810120537</v>
+        <v>-34.36971974939574</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.461836879934858</v>
+        <v>-1.046470479978257</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.821593544127564</v>
+        <v>-3.373522571672332</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.6685465015808325</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.66961167940099</v>
+        <v>-36.55880515374371</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.38782609197058</v>
+        <v>-1.079829667618975</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.033715034769211</v>
+        <v>-3.596654689003869</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-1.126357676805961</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.00965133551406</v>
+        <v>-38.74604454339099</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.313579642555152</v>
+        <v>-1.081282913234406</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.175177366974061</v>
+        <v>-3.805372180906666</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-1.608500641131059</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.11426520192721</v>
+        <v>-40.86788788034385</v>
       </c>
       <c r="F99" t="n">
-        <v>-1.42551883185191</v>
+        <v>-1.209613665689005</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.371273878937433</v>
+        <v>-4.087681507082805</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-2.128094800129472</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.51485675868326</v>
+        <v>-43.18235826900703</v>
       </c>
       <c r="F100" t="n">
-        <v>-1.271644996553103</v>
+        <v>-1.103199428191456</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.508468120415881</v>
+        <v>-4.159741541923665</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-2.618606481077464</v>
       </c>
       <c r="E101" t="n">
-        <v>-47.73977579590903</v>
+        <v>-45.34783825133136</v>
       </c>
       <c r="F101" t="n">
-        <v>-1.320138886278857</v>
+        <v>-1.228257104935623</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.005949443795788</v>
+        <v>-4.555521856829045</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-3.138617740915008</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.08413591195986</v>
+        <v>-47.69836484202064</v>
       </c>
       <c r="F102" t="n">
-        <v>-1.483203518172555</v>
+        <v>-1.363710070136121</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.306535624738977</v>
+        <v>-4.788303001354934</v>
       </c>
     </row>
   </sheetData>
